--- a/Unity/Assets/Config/Excel/VipConfig.xlsx
+++ b/Unity/Assets/Config/Excel/VipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="VipConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>##var</t>
   </si>
@@ -44,6 +44,9 @@
     <t>OfflineAddTime</t>
   </si>
   <si>
+    <t>Pack</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>int#ref=ItemConfigCategory</t>
   </si>
   <si>
     <t>##</t>
@@ -66,6 +72,9 @@
   </si>
   <si>
     <t>离线最大时长增加</t>
+  </si>
+  <si>
+    <t>Vip礼包</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1076,8 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -1078,7 +1087,7 @@
     <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
@@ -1100,51 +1109,57 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:6">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -1158,8 +1173,11 @@
       <c r="E4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -1172,6 +1190,9 @@
       </c>
       <c r="E5" s="4">
         <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>930001</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:8">
@@ -1189,11 +1210,13 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>930001</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" s="8">
         <v>4</v>
       </c>
@@ -1207,8 +1230,11 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="8">
         <v>5</v>
       </c>
@@ -1222,8 +1248,11 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="8">
         <v>6</v>
       </c>
@@ -1237,8 +1266,11 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="8">
         <v>7</v>
       </c>
@@ -1252,8 +1284,11 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="F10" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="8">
         <v>8</v>
       </c>
@@ -1267,8 +1302,11 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="F11" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="8">
         <v>9</v>
       </c>
@@ -1282,8 +1320,11 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="F12" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="8">
         <v>10</v>
       </c>
@@ -1298,8 +1339,11 @@
         <f>60*60*12</f>
         <v>43200</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F13" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="8">
         <v>11</v>
       </c>
@@ -1314,8 +1358,11 @@
         <f t="shared" ref="E14:E23" si="1">60*60*12</f>
         <v>43200</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="8">
         <v>12</v>
       </c>
@@ -1330,8 +1377,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="8">
         <v>13</v>
       </c>
@@ -1346,8 +1396,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="8">
         <v>14</v>
       </c>
@@ -1362,8 +1415,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="8">
         <v>15</v>
       </c>
@@ -1378,8 +1434,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="8">
         <v>16</v>
       </c>
@@ -1394,8 +1453,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="8">
         <v>17</v>
       </c>
@@ -1410,8 +1472,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="8">
         <v>18</v>
       </c>
@@ -1426,8 +1491,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="F21" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="8">
         <v>19</v>
       </c>
@@ -1442,8 +1510,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F22" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="8">
         <v>20</v>
       </c>
@@ -1458,8 +1529,11 @@
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="F23" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="8">
         <v>21</v>
       </c>
@@ -1474,8 +1548,11 @@
         <f>60*60*24</f>
         <v>86400</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="F24" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="8">
         <v>22</v>
       </c>
@@ -1490,8 +1567,11 @@
         <f t="shared" ref="E25:E33" si="2">60*60*24</f>
         <v>86400</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="8">
         <v>23</v>
       </c>
@@ -1506,8 +1586,11 @@
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -1522,8 +1605,11 @@
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="8">
         <v>25</v>
       </c>
@@ -1538,8 +1624,11 @@
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="F28" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="8">
         <v>26</v>
       </c>
@@ -1554,8 +1643,11 @@
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="F29" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="8">
         <v>27</v>
       </c>
@@ -1570,8 +1662,11 @@
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="8">
         <v>28</v>
       </c>
@@ -1586,8 +1681,11 @@
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="8">
         <v>29</v>
       </c>
@@ -1602,8 +1700,11 @@
         <f t="shared" si="2"/>
         <v>86400</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="8">
         <v>30</v>
       </c>
@@ -1617,6 +1718,9 @@
       <c r="E33" s="4">
         <f t="shared" si="2"/>
         <v>86400</v>
+      </c>
+      <c r="F33" s="4">
+        <v>930001</v>
       </c>
     </row>
     <row r="34" spans="2:2">

--- a/Unity/Assets/Config/Excel/VipConfig.xlsx
+++ b/Unity/Assets/Config/Excel/VipConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="VipConfigProto" sheetId="1" r:id="rId1"/>
@@ -1074,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -1159,13 +1159,13 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" s="4"/>
       <c r="B4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f>B4*6</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -1176,54 +1176,54 @@
       <c r="F4" s="4">
         <v>930001</v>
       </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <f>B5*6</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C33" si="0">B5*6</f>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C34" si="0">B6*6</f>
         <v>12</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>930001</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>930001</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
@@ -1233,14 +1233,16 @@
       <c r="F7" s="4">
         <v>930001</v>
       </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1254,11 +1256,11 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1272,11 +1274,11 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1290,11 +1292,11 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1308,11 +1310,11 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -1326,55 +1328,54 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <f>60*60*12</f>
         <v>43200</v>
       </c>
-      <c r="F13" s="4">
-        <v>930001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="8">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" ref="E14:E23" si="1">60*60*12</f>
-        <v>43200</v>
-      </c>
       <c r="F14" s="4">
         <v>930001</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E15:E24" si="1">60*60*12</f>
         <v>43200</v>
       </c>
       <c r="F15" s="4">
@@ -1383,11 +1384,11 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -1402,11 +1403,11 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1421,11 +1422,11 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1440,11 +1441,11 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1459,11 +1460,11 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -1478,11 +1479,11 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -1497,11 +1498,11 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -1516,11 +1517,11 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1535,55 +1536,55 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="1"/>
+        <v>43200</v>
+      </c>
+      <c r="F24" s="4">
+        <v>930001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="8">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>5000</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <f>60*60*24</f>
         <v>86400</v>
       </c>
-      <c r="F24" s="4">
-        <v>930001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="8">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="D25" s="4">
-        <v>5000</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ref="E25:E33" si="2">60*60*24</f>
-        <v>86400</v>
-      </c>
       <c r="F25" s="4">
         <v>930001</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D26" s="4">
         <v>5000</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E26:E34" si="2">60*60*24</f>
         <v>86400</v>
       </c>
       <c r="F26" s="4">
@@ -1592,11 +1593,11 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D27" s="4">
         <v>5000</v>
@@ -1611,11 +1612,11 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D28" s="4">
         <v>5000</v>
@@ -1630,14 +1631,14 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D29" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="2"/>
@@ -1649,11 +1650,11 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D30" s="4">
         <v>10000</v>
@@ -1668,11 +1669,11 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D31" s="4">
         <v>10000</v>
@@ -1687,11 +1688,11 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D32" s="4">
         <v>10000</v>
@@ -1706,14 +1707,14 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D33" s="4">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="2"/>
@@ -1723,8 +1724,24 @@
         <v>930001</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="8"/>
+    <row r="34" spans="2:6">
+      <c r="B34" s="8">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D34" s="4">
+        <v>15000</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="2"/>
+        <v>86400</v>
+      </c>
+      <c r="F34" s="4">
+        <v>930001</v>
+      </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="8"/>
@@ -1842,6 +1859,9 @@
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
